--- a/medicine/Enfance/Balançoire/Balançoire.xlsx
+++ b/medicine/Enfance/Balançoire/Balançoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Balan%C3%A7oire</t>
+          <t>Balançoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La balançoire est un jeu, généralement de plein air, qui consiste à se balancer sur une planche accrochée à un portique. Une balançoire traditionnelle se compose d'un siège suspendu à deux cordes. On en trouve dans les jardins d'enfants, un terrain de jeux et parfois dans les cirques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Balan%C3%A7oire</t>
+          <t>Balançoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le siège peut se résumer à une simple planche suffisamment solide pour supporter le poids de la personne qui va se balancer. Mais il y a aussi des balançoires faites de matériaux de récupération : elles sont constituées d'un pneu en guise de siège attaché par des cordes ou des chaînes au portique.
 Depuis plusieurs décennies, de nouvelles sortes de balançoires ont fait leur apparition : balançoires à deux places, plus ou moins sophistiquées, jouant sur l'énergie ou le contrepoids engendré par les personnes s'y asseyant.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Balan%C3%A7oire</t>
+          <t>Balançoire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Balan%C3%A7oire</t>
+          <t>Balançoire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Disposition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le sud des États-Unis, il est traditionnel d'en disposer dans les porches des maisons où l'on se repose en prenant l'air frais.
 </t>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Balan%C3%A7oire</t>
+          <t>Balançoire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,7 +620,9 @@
           <t>Science</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'analyse énergétique de ce jeu enfantin qu'est la balançoire n'est pas enfantine. On peut y retrouver les relations de transfert d'énergie entre fréquences caractéristiques de l'oscillateur paramétrique (pendule paramétrique).
 </t>
@@ -615,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Balan%C3%A7oire</t>
+          <t>Balançoire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -633,7 +653,9 @@
           <t>Dans l'art</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La balançoire sert, dans l'art, de support à des scènes enfantines ou à des rencontres amoureuses. On notera par exemple, en peinture :
 La Balançoire de  Jean-Honoré Fragonard, vers 1750-1752
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Balan%C3%A7oire</t>
+          <t>Balançoire</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +693,9 @@
           <t>Mouvement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis sa création beaucoup ont sauté de la balançoire, essayant de ne pas tomber et d'aller le plus haut ou le plus loin possible, mais avec l'apparition du Tricking, du Parkour et du Free-running dans notre société, certaines personnes ont décidé d'aller plus loin : Le "Swing Tricking" (mouvements à la balançoire).
 Inspiré du tricking et du plongeon, cette nouvelle discipline extrême se compose de mouvements effectués en plein balancement. On compte principalement parmi eux :
